--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabricio.carvalho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabricio.carvalho\Desktop\Aplicativos\Faculdade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87FD4368-370E-463C-951C-14C75366370F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C08F256-4EAD-4590-AD94-97774EFB5DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{704E790B-DF8F-4F59-BE19-BE7E96B3A49F}"/>
   </bookViews>
@@ -113,21 +113,6 @@
     <t>* RF00: Realizar login do administrador</t>
   </si>
   <si>
-    <t>Filtrar Resultados</t>
-  </si>
-  <si>
-    <t>Visualizar Gráfico dos Salários</t>
-  </si>
-  <si>
-    <t>Visualizar Salários dos Servidores Públicos</t>
-  </si>
-  <si>
-    <t>Visualizar Dados Estatísticos dos Salários</t>
-  </si>
-  <si>
-    <t>Visualizar Detalhes do Salário</t>
-  </si>
-  <si>
     <t>Quando</t>
   </si>
   <si>
@@ -141,6 +126,21 @@
   </si>
   <si>
     <t>Requisito</t>
+  </si>
+  <si>
+    <t>Visualizar Salários dos Servidores Públicos, colhendo os dados do banco e disponibilizando-os em tabelas</t>
+  </si>
+  <si>
+    <t>Visualizar Dados Estatísticos dos Salários, como média por cargo, organizar do menor para o maior salário, do maior para o menor, informar o menor salário, informar o maior salário, informar a média salarial</t>
+  </si>
+  <si>
+    <t>Visualizar Detalhes do Salário, Informar o descritivo do holerite, como: Proventos e descontos do salário</t>
+  </si>
+  <si>
+    <t>Filtrar Resultados, por: Mês de referência, faixa salarial, cargo, ou tipo de provimento/desconto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* RF02: Visualizar Gráfico dos Salários, </t>
   </si>
 </sst>
 </file>
@@ -489,75 +489,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,7 +879,7 @@
   <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -898,58 +898,58 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>32</v>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
@@ -966,15 +966,15 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -982,31 +982,31 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+    <row r="7" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1014,15 +1014,15 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1030,15 +1030,15 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1046,8 +1046,8 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1062,8 +1062,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1078,10 +1078,10 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1100,8 +1100,8 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1109,15 +1109,15 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1132,8 +1132,8 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1148,8 +1148,8 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1168,8 +1168,8 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1184,8 +1184,8 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1200,8 +1200,8 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1216,8 +1216,8 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1236,8 +1236,8 @@
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" ht="99" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabricio.carvalho\Desktop\Aplicativos\Faculdade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabricio.carvalho\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C08F256-4EAD-4590-AD94-97774EFB5DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF94E5E-8E97-4F63-BDC4-5944CA44171B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{704E790B-DF8F-4F59-BE19-BE7E96B3A49F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>Stakeholder (superficial)</t>
   </si>
@@ -68,51 +68,9 @@
     <t>Manutenibilidade</t>
   </si>
   <si>
-    <t>* RNF07: O sistema deve responder em, no máximo, 2 segundos a todas as requisições de clientes, quando estiver com até 5.000 clientes "logados".</t>
-  </si>
-  <si>
-    <t>* RNF08: O sistema deve ser orientado a objetos.</t>
-  </si>
-  <si>
-    <t>* RNF01 : O sistema deve disponibilizar ao munícipe informações organizadas e filtradas dos servidores públicos da prefeitura de Mogi das Cruzes;</t>
-  </si>
-  <si>
-    <t>* RNF02: Interface leve, minimalista, intuitiva, com gráficos e tabelas;</t>
-  </si>
-  <si>
-    <t>* RNF04: O sistema deve ter boa disponibilidade;</t>
-  </si>
-  <si>
-    <t>* RNF05: O sistema deve ser rápido;</t>
-  </si>
-  <si>
-    <t>* RNF06: Deve ser fácil dar manutenção no sistema.</t>
-  </si>
-  <si>
-    <t>* RNF03: Fica vedado aos administradores, alterar dados, salvo para sanar incorreções decorrentes de erros ou mal funcionamento do sistema.</t>
-  </si>
-  <si>
-    <t>* RNF04: O sistema deve estar disponível 24 horas por dia, 7 dias por semana, com tolerância de 1% de falhas;</t>
-  </si>
-  <si>
-    <t>* RNF05: Caso seja possível executar a manutenção, inserção ou alteração de dados do sistema via internet, este deverá contar com um sistema de conexão segura;</t>
-  </si>
-  <si>
-    <t>* RNF06: Deverá ser realizada cópia de segurança periódica da base de dados do sistema que permita a sua recuperação em caso de incidente ou falha.</t>
-  </si>
-  <si>
     <t>* RF01: Apresentar os dados do portal da transparência em forma de tabelas, gráficos e filtros.</t>
   </si>
   <si>
-    <t>* RF01: Manter registro dos termos e pesquisas utilizados no banco de dados através da inserção dessas informações no BD no momento da geração do resultado da pesquisa.</t>
-  </si>
-  <si>
-    <t>* RF00: Inserir e alterar buscas sugeridas na página inicial do sistema.</t>
-  </si>
-  <si>
-    <t>* RF00: Realizar login do administrador</t>
-  </si>
-  <si>
     <t>Quando</t>
   </si>
   <si>
@@ -128,19 +86,100 @@
     <t>Requisito</t>
   </si>
   <si>
-    <t>Visualizar Salários dos Servidores Públicos, colhendo os dados do banco e disponibilizando-os em tabelas</t>
-  </si>
-  <si>
-    <t>Visualizar Dados Estatísticos dos Salários, como média por cargo, organizar do menor para o maior salário, do maior para o menor, informar o menor salário, informar o maior salário, informar a média salarial</t>
-  </si>
-  <si>
-    <t>Visualizar Detalhes do Salário, Informar o descritivo do holerite, como: Proventos e descontos do salário</t>
-  </si>
-  <si>
-    <t>Filtrar Resultados, por: Mês de referência, faixa salarial, cargo, ou tipo de provimento/desconto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* RF02: Visualizar Gráfico dos Salários, </t>
+    <t>Luque</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* RF01.1: Visualizar Gráfico dos Salários, </t>
+  </si>
+  <si>
+    <t>* RF01.2: Visualizar Salários dos Servidores Públicos, colhendo os dados do banco e disponibilizando-os em tabelas</t>
+  </si>
+  <si>
+    <t>* RF01.3: Visualizar Dados Estatísticos dos Salários, como média por cargo, organizar do menor para o maior salário, do maior para o menor, informar o menor salário, informar o maior salário, informar a média salarial</t>
+  </si>
+  <si>
+    <t>* RF01.4: Visualizar Detalhes do Salário, Informar o descritivo do holerite, como: Proventos e descontos do salário</t>
+  </si>
+  <si>
+    <t>* RF01.5: Filtrar Resultados, por: Mês de referência, faixa salarial, cargo, ou tipo de provimento/desconto</t>
+  </si>
+  <si>
+    <t>* RF02.1: Inserir e alterar buscas sugeridas na página inicial do sistema.</t>
+  </si>
+  <si>
+    <t>* RF02.2: Registrar os termos e pesquisas utilizados através cadastramento dessas informações no BD no momento da geração do resultado da pesquisa.</t>
+  </si>
+  <si>
+    <t>Luque / Paulo</t>
+  </si>
+  <si>
+    <t>* RF02: Disponibilizar de buscas frequentes / relevantes.</t>
+  </si>
+  <si>
+    <t>* RF03: Fornecer acesso à um administrador para controle das buscas.</t>
+  </si>
+  <si>
+    <t>* RNF01.1 : O sistema deve disponibilizar ao munícipe informações organizadas e filtradas dos servidores públicos da prefeitura de Mogi das Cruzes;</t>
+  </si>
+  <si>
+    <t>* RNF04: Interface leve, minimalista, intuitiva, com gráficos e tabelas;</t>
+  </si>
+  <si>
+    <t>* RNF05: O sistema deve ter boa disponibilidade;</t>
+  </si>
+  <si>
+    <t>* RNF06: O sistema deve ser rápido;</t>
+  </si>
+  <si>
+    <t>* RNF07: Deve ser fácil dar manutenção no sistema.</t>
+  </si>
+  <si>
+    <t>* RNF05.1: Fica vedado aos administradores, alterar dados, salvo para sanar incorreções decorrentes de erros ou mal funcionamento do sistema.</t>
+  </si>
+  <si>
+    <t>* RNF05.2: O sistema deve estar disponível 24 horas por dia, 7 dias por semana, com tolerância de 1% de falhas;</t>
+  </si>
+  <si>
+    <t>* RNF05.3: Caso seja possível executar a manutenção, inserção ou alteração de dados do sistema via internet, este deverá contar com um sistema de conexão segura;</t>
+  </si>
+  <si>
+    <t>* RNF05.4: Deverá ser realizada cópia de segurança periódica da base de dados do sistema que permita a sua recuperação em caso de incidente ou falha.</t>
+  </si>
+  <si>
+    <t>* RNF06.1: O sistema deve responder em, no máximo, 2 segundos a todas as requisições de clientes, quando estiver com até 5.000 clientes "logados".</t>
+  </si>
+  <si>
+    <t>* RF03.1: Realizar login, para acesso às informações do sistema, em uma área do administrador</t>
+  </si>
+  <si>
+    <t>* RNF03.1: O sistema deve ser responsivo, permitindo-o ser acessado em diversos tipos dispositivos</t>
+  </si>
+  <si>
+    <t>* RNF02.1: O sistema deve conter botões com ícones que indiquem sua função, sem a necessidade de textos</t>
+  </si>
+  <si>
+    <t>* RNF04.1: Conforme protótipo apresentado</t>
+  </si>
+  <si>
+    <t>Anexo no card do trello de prototipação de interface enviado pelo Tiago em 16/03/2020</t>
+  </si>
+  <si>
+    <t>Fabricio</t>
+  </si>
+  <si>
+    <t>Fabricio / George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* RNF07.1: O código deve ser orientado a objetos e conter comentários em cada função. </t>
   </si>
 </sst>
 </file>
@@ -194,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -474,11 +513,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -501,16 +590,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,6 +668,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,7 +1001,7 @@
   <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H4" sqref="H4:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -887,376 +1009,558 @@
     <col min="1" max="1" width="0.85546875" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="8.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="81.5703125" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="12" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="42.28515625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="8" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="36">
+        <v>43899</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="12">
+        <v>43899</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="13">
+        <v>43899</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="13">
+        <v>43899</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="30"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="13">
+        <v>43899</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="13">
+        <v>43899</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="18">
+        <v>43892</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="13">
+        <v>43892</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="13">
+        <v>43892</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="14">
+        <v>43892</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="14">
+        <v>43892</v>
+      </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13">
+        <v>43903</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
+        <v>43903</v>
+      </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="20"/>
+    <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="13">
+        <v>43903</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="I13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="13">
+        <v>43903</v>
+      </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="20"/>
+    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43903</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
+        <v>43903</v>
+      </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="21"/>
+    <row r="15" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="13">
+        <v>43903</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="13">
+        <v>43903</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="D16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="18">
+        <v>43892</v>
+      </c>
+      <c r="H16" s="15"/>
       <c r="I16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="13">
+        <v>43892</v>
+      </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="13">
+        <v>43892</v>
+      </c>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
+        <v>43892</v>
+      </c>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="13">
+        <v>43892</v>
+      </c>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13">
+        <v>43892</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
+        <v>43892</v>
+      </c>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" ht="99" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="14">
+        <v>43892</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="14">
+        <v>43892</v>
+      </c>
       <c r="M21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="22">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="B12:B21"/>
@@ -1264,6 +1568,21 @@
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
